--- a/result/with_base/234/arousal/s23_9.xlsx
+++ b/result/with_base/234/arousal/s23_9.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8149999976158142</v>
+        <v>0.7991071343421936</v>
       </c>
       <c r="C2" t="n">
-        <v>41703.7890625</v>
+        <v>11283.7626953125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8235227248885415</v>
+        <v>0.8178834038622239</v>
       </c>
       <c r="E2" t="n">
-        <v>41703.85546875</v>
+        <v>11283.42807904412</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.86328125</v>
       </c>
       <c r="C3" t="n">
-        <v>40916.458984375</v>
+        <v>10976.58251953125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8801136341961947</v>
+        <v>0.8902310939396129</v>
       </c>
       <c r="E3" t="n">
-        <v>40918.19957386364</v>
+        <v>10975.55882352941</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8950000107288361</v>
+        <v>0.8716517984867096</v>
       </c>
       <c r="C4" t="n">
-        <v>40139.615234375</v>
+        <v>10673.6533203125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9218181859363209</v>
+        <v>0.9209558823529411</v>
       </c>
       <c r="E4" t="n">
-        <v>40139.24715909091</v>
+        <v>10672.54681755515</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.8716517984867096</v>
       </c>
       <c r="C5" t="n">
-        <v>39372.544921875</v>
+        <v>10375.921875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9387500015172091</v>
+        <v>0.9384191176470589</v>
       </c>
       <c r="E5" t="n">
-        <v>39372.08558238636</v>
+        <v>10374.60340073529</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9045758843421936</v>
       </c>
       <c r="C6" t="n">
-        <v>38616.353515625</v>
+        <v>10083.943359375</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9552272720770403</v>
+        <v>0.9512211119427401</v>
       </c>
       <c r="E6" t="n">
-        <v>38615.23401988636</v>
+        <v>10082.67520680147</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9045758843421936</v>
       </c>
       <c r="C7" t="n">
-        <v>37872.466796875</v>
+        <v>9798.37646484375</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9613636352799155</v>
+        <v>0.9617909648839165</v>
       </c>
       <c r="E7" t="n">
-        <v>37871.14666193182</v>
+        <v>9797.258961397059</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C8" t="n">
-        <v>37141.3671875</v>
+        <v>9519.70458984375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9709090915593234</v>
+        <v>0.9675026255495408</v>
       </c>
       <c r="E8" t="n">
-        <v>37139.35830965909</v>
+        <v>9518.505112591913</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C9" t="n">
-        <v>36422.92578125</v>
+        <v>9247.40234375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9747727350755171</v>
+        <v>0.9713103981579051</v>
       </c>
       <c r="E9" t="n">
-        <v>36420.3828125</v>
+        <v>9246.558249080883</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C10" t="n">
-        <v>35716.259765625</v>
+        <v>8982.388671875</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9748863740400835</v>
+        <v>0.9750525215092827</v>
       </c>
       <c r="E10" t="n">
-        <v>35714.02485795454</v>
+        <v>8981.223173253677</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C11" t="n">
-        <v>35022.025390625</v>
+        <v>8723.70458984375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9798863692717119</v>
+        <v>0.9763655452167287</v>
       </c>
       <c r="E11" t="n">
-        <v>35019.8828125</v>
+        <v>8722.520335477941</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.93359375</v>
       </c>
       <c r="C12" t="n">
-        <v>34340.4140625</v>
+        <v>8471.20068359375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9768181985074823</v>
+        <v>0.9837841391563416</v>
       </c>
       <c r="E12" t="n">
-        <v>34338.30007102273</v>
+        <v>8470.246725643383</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C13" t="n">
-        <v>33671.34765625</v>
+        <v>8225.330078125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9913636445999146</v>
+        <v>0.9851628156269298</v>
       </c>
       <c r="E13" t="n">
-        <v>33668.91654829546</v>
+        <v>8224.614487591913</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C14" t="n">
-        <v>33013.96484375</v>
+        <v>7985.95654296875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9872727394104004</v>
+        <v>0.988839286215165</v>
       </c>
       <c r="E14" t="n">
-        <v>33011.90909090909</v>
+        <v>7985.252671185662</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C15" t="n">
-        <v>32368.693359375</v>
+        <v>7752.978759765625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9925000071525574</v>
+        <v>0.9884453766486224</v>
       </c>
       <c r="E15" t="n">
-        <v>32366.69158380682</v>
+        <v>7752.202751608456</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C16" t="n">
-        <v>31735.4482421875</v>
+        <v>7526.101318359375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9943181872367859</v>
+        <v>0.9861475825309753</v>
       </c>
       <c r="E16" t="n">
-        <v>31733.37659801136</v>
+        <v>7525.287252987132</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9453125</v>
       </c>
       <c r="C17" t="n">
-        <v>31113.9326171875</v>
+        <v>7304.981201171875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9938636422157288</v>
+        <v>0.9889705882352942</v>
       </c>
       <c r="E17" t="n">
-        <v>31111.81960227273</v>
+        <v>7304.28751148897</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C18" t="n">
-        <v>30503.8779296875</v>
+        <v>7089.54638671875</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9912500056353483</v>
+        <v>0.992450104040258</v>
       </c>
       <c r="E18" t="n">
-        <v>30501.65607244318</v>
+        <v>7089.16885914522</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9375</v>
       </c>
       <c r="C19" t="n">
-        <v>29904.9951171875</v>
+        <v>6880.568115234375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9944318207827482</v>
+        <v>0.9929753156269298</v>
       </c>
       <c r="E19" t="n">
-        <v>29902.71555397727</v>
+        <v>6879.821748621323</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C20" t="n">
-        <v>29317.04296875</v>
+        <v>6676.753662109375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9929753156269298</v>
       </c>
       <c r="E20" t="n">
-        <v>29314.97816051136</v>
+        <v>6676.169088924632</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9375</v>
       </c>
       <c r="C21" t="n">
-        <v>28739.69140625</v>
+        <v>6478.574951171875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9893644942956812</v>
       </c>
       <c r="E21" t="n">
-        <v>28738.13529829546</v>
+        <v>6478.067009420956</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9453125</v>
       </c>
       <c r="C22" t="n">
-        <v>28173.78125</v>
+        <v>6286.0263671875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9935661764705882</v>
       </c>
       <c r="E22" t="n">
-        <v>28172.10138494318</v>
+        <v>6285.239975873162</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9375</v>
       </c>
       <c r="C23" t="n">
-        <v>27618.3857421875</v>
+        <v>6098.3564453125</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9916622884133283</v>
       </c>
       <c r="E23" t="n">
-        <v>27616.64080255682</v>
+        <v>6097.689912683823</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C24" t="n">
-        <v>27073.1904296875</v>
+        <v>5915.808349609375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9943181872367859</v>
+        <v>0.9940257352941176</v>
       </c>
       <c r="E24" t="n">
-        <v>27071.484375</v>
+        <v>5915.258903952206</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C25" t="n">
-        <v>26538.126953125</v>
+        <v>5738.228271484375</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9894301470588235</v>
       </c>
       <c r="E25" t="n">
-        <v>26536.54705255682</v>
+        <v>5737.845875459559</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C26" t="n">
-        <v>26013.3447265625</v>
+        <v>5565.69384765625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9930409648839165</v>
       </c>
       <c r="E26" t="n">
-        <v>26011.67240767046</v>
+        <v>5565.206600413603</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C27" t="n">
-        <v>25498.234375</v>
+        <v>5397.852294921875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9952731097445768</v>
       </c>
       <c r="E27" t="n">
-        <v>25496.56942471591</v>
+        <v>5397.361615349265</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.94140625</v>
       </c>
       <c r="C28" t="n">
-        <v>24992.3310546875</v>
+        <v>5234.606689453125</v>
       </c>
       <c r="D28" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9939600825309753</v>
       </c>
       <c r="E28" t="n">
-        <v>24991.15536221591</v>
+        <v>5234.148609834559</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C29" t="n">
-        <v>24496.3916015625</v>
+        <v>5075.93994140625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9958639705882353</v>
       </c>
       <c r="E29" t="n">
-        <v>24495.24822443182</v>
+        <v>5075.44002757353</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C30" t="n">
-        <v>24009.958984375</v>
+        <v>4921.67041015625</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9952731097445768</v>
       </c>
       <c r="E30" t="n">
-        <v>24008.64133522727</v>
+        <v>4921.12109375</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.94140625</v>
       </c>
       <c r="C31" t="n">
-        <v>23532.7734375</v>
+        <v>4771.569091796875</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9948792001780342</v>
       </c>
       <c r="E31" t="n">
-        <v>23531.21235795454</v>
+        <v>4771.094755284927</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C32" t="n">
-        <v>23064.2861328125</v>
+        <v>4625.65966796875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9948792001780342</v>
       </c>
       <c r="E32" t="n">
-        <v>23062.77077414773</v>
+        <v>4625.249052159927</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C33" t="n">
-        <v>22604.458984375</v>
+        <v>4483.810791015625</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.992056197979871</v>
       </c>
       <c r="E33" t="n">
-        <v>22603.17489346591</v>
+        <v>4483.476878446691</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.94140625</v>
       </c>
       <c r="C34" t="n">
-        <v>22153.4111328125</v>
+        <v>4345.9873046875</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9970454573631287</v>
+        <v>0.9948792001780342</v>
       </c>
       <c r="E34" t="n">
-        <v>22152.19708806818</v>
+        <v>4345.676528033088</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.94921875</v>
       </c>
       <c r="C35" t="n">
-        <v>21710.93359375</v>
+        <v>4212.006591796875</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9967830882352942</v>
       </c>
       <c r="E35" t="n">
-        <v>21709.69921875</v>
+        <v>4211.689194623162</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.94140625</v>
       </c>
       <c r="C36" t="n">
-        <v>21276.443359375</v>
+        <v>4081.879516601562</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9960227283564481</v>
+        <v>0.9967174354721519</v>
       </c>
       <c r="E36" t="n">
-        <v>21275.58309659091</v>
+        <v>4081.500646254596</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C37" t="n">
-        <v>20850.47265625</v>
+        <v>3955.379028320312</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9949448529411765</v>
       </c>
       <c r="E37" t="n">
-        <v>20849.60813210227</v>
+        <v>3954.999109604779</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C38" t="n">
-        <v>20432.650390625</v>
+        <v>3832.396606445312</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E38" t="n">
-        <v>20431.70436789773</v>
+        <v>3832.070456112132</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C39" t="n">
-        <v>20022.703125</v>
+        <v>3712.826782226562</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9972426470588235</v>
       </c>
       <c r="E39" t="n">
-        <v>20021.703125</v>
+        <v>3712.601634306066</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C40" t="n">
-        <v>19620.4892578125</v>
+        <v>3596.9033203125</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9935661764705882</v>
       </c>
       <c r="E40" t="n">
-        <v>19619.43430397727</v>
+        <v>3596.549977022059</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C41" t="n">
-        <v>19226.111328125</v>
+        <v>3484.014770507812</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9961922273916357</v>
       </c>
       <c r="E41" t="n">
-        <v>19224.81516335227</v>
+        <v>3483.786161534927</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C42" t="n">
-        <v>18839.0849609375</v>
+        <v>3374.461791992188</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9925157568034004</v>
       </c>
       <c r="E42" t="n">
-        <v>18837.65642755682</v>
+        <v>3374.258975758272</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C43" t="n">
-        <v>18458.90625</v>
+        <v>3268.056518554688</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9972426470588235</v>
       </c>
       <c r="E43" t="n">
-        <v>18457.79740767046</v>
+        <v>3267.829374425552</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C44" t="n">
-        <v>18085.86328125</v>
+        <v>3164.748901367188</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9907431707662695</v>
       </c>
       <c r="E44" t="n">
-        <v>18085.09303977273</v>
+        <v>3164.484978170956</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C45" t="n">
-        <v>17720.255859375</v>
+        <v>3064.298461914062</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9944196413545048</v>
       </c>
       <c r="E45" t="n">
-        <v>17719.44673295454</v>
+        <v>3064.07466394761</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C46" t="n">
-        <v>17361.8212890625</v>
+        <v>2966.759399414062</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9944852941176471</v>
       </c>
       <c r="E46" t="n">
-        <v>17360.74840198864</v>
+        <v>2966.573084214154</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.94921875</v>
       </c>
       <c r="C47" t="n">
-        <v>17009.7724609375</v>
+        <v>2872.0732421875</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.995798317825093</v>
       </c>
       <c r="E47" t="n">
-        <v>17008.83274147727</v>
+        <v>2871.891285615809</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9620535671710968</v>
       </c>
       <c r="C48" t="n">
-        <v>16664.216796875</v>
+        <v>2780.117431640625</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0.9961922273916357</v>
       </c>
       <c r="E48" t="n">
-        <v>16663.6328125</v>
+        <v>2779.948673023897</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C49" t="n">
-        <v>16325.4775390625</v>
+        <v>2690.849487304688</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9929753156269298</v>
       </c>
       <c r="E49" t="n">
-        <v>16325.0078125</v>
+        <v>2690.683076746323</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C50" t="n">
-        <v>15993.40185546875</v>
+        <v>2604.249755859375</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9944196413545048</v>
       </c>
       <c r="E50" t="n">
-        <v>15992.77192826705</v>
+        <v>2603.991598690257</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,916 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C51" t="n">
-        <v>15667.6123046875</v>
+        <v>2520.0146484375</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9925814060603871</v>
       </c>
       <c r="E51" t="n">
-        <v>15666.86647727273</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15348.03857421875</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15347.16708096591</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15034.27197265625</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15033.54802911932</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14726.56201171875</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14725.89959161932</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14424.59423828125</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14424.09765625</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14128.7216796875</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14128.05681818182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13838.3935546875</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13837.69406960227</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13553.58544921875</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13552.86594460227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13274.10595703125</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13273.50452769886</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13000.046875</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E60" t="n">
-        <v>12999.47496448864</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12731.2939453125</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12730.69451349432</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12467.6591796875</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12467.05850497159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12209.091796875</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12208.49032315341</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11955.3994140625</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11954.88982599432</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11706.61962890625</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11706.15553977273</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11462.5576171875</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11462.20827414773</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11223.26318359375</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11222.96448863636</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C68" t="n">
-        <v>10988.56884765625</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10988.32608309659</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10758.60498046875</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10758.23046875</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10532.98388671875</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10532.57191051136</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10311.68115234375</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10311.28302556818</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9525000154972076</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10094.6171875</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10094.27024147727</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9881.79443359375</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9881.469105113636</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9673.22509765625</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9672.786399147728</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9468.6318359375</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9994318160143766</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9468.166281960228</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9267.94384765625</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9267.530717329546</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9071.16259765625</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9070.792702414772</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8878.20166015625</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8877.88370028409</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8689.083984375</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8688.753462357954</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8503.70458984375</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8503.312322443182</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9550000131130219</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8321.84814453125</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9994318160143766</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8321.511186079546</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9954941999808263</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8524590163934426</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9954941999808263</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8743169398907104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9954941999808263</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8907103825136612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9954941999808263</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9016393442622951</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9954941999808263</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9344262295081968</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01754385964912281</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9954941999808263</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9344262295081968</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.01754385964912281</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9954941999808263</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9726775956284153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.03508771929824561</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9954941999808263</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9726775956284153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.03508771929824561</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9954941999808263</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9781420765027322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.07017543859649122</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9954941999808263</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9781420765027322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.07017543859649122</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9954941999808263</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9890710382513661</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.2280701754385965</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9954941999808263</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9890710382513661</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.2280701754385965</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9954941999808263</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.2982456140350877</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9954941999808263</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>0.2982456140350877</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9954941999808263</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9954941999808263</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9954941999808264</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6140350877192983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9954941999808264</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6491228070175439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9954941999808264</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7017543859649122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.00546448087431694</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9954941999808264</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7017543859649122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.00546448087431694</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9954941999808264</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7719298245614035</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01092896174863388</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9954941999808264</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7719298245614035</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.01092896174863388</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9954941999808264</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9298245614035088</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.02185792349726776</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9954941999808264</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9298245614035088</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.02185792349726776</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9954941999808264</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9649122807017544</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.0273224043715847</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9954941999808264</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9649122807017544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.0273224043715847</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9954941999808264</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9824561403508771</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.06557377049180328</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9954941999808264</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9824561403508771</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.06557377049180328</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9954941999808264</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9954941999808264</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>2519.849350873162</v>
       </c>
     </row>
   </sheetData>
